--- a/application/src/test/resources/rates/район.xlsx
+++ b/application/src/test/resources/rates/район.xlsx
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Вокзал</t>
-  </si>
-  <si>
-    <t>Доса</t>
   </si>
   <si>
     <t>Северный</t>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Тракторный</t>
+  </si>
+  <si>
+    <t>ДОСА</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>$A7</f>
-        <v>Доса</v>
+        <v>ДОСА</v>
       </c>
       <c r="H1" s="4" t="str">
         <f>$A8</f>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8">
         <f>G2</f>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8">
         <f>H2</f>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8">
         <f>I2</f>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="8">
         <f>J2</f>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="8">
         <f>K2</f>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="8">
         <f>L2</f>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8">
         <f>M2</f>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8">
         <f>N2</f>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8">
         <f>O2</f>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8">
         <f>P2</f>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="8">
         <f>Q2</f>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="8">
         <f>R2</f>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="8">
         <f>S2</f>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="8">
         <f>T2</f>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="8">
         <f>U2</f>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="8">
         <f>V2</f>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="8">
         <f>W2</f>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="8">
         <f>X2</f>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8">
         <f>Y2</f>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="8">
         <f>Z2</f>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="8">
         <f>AA2</f>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="8">
         <f>AB2</f>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="8">
         <f>AC2</f>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="8">
         <f>AD2</f>
